--- a/TestData/test_data.xlsx
+++ b/TestData/test_data.xlsx
@@ -199,27 +199,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert_word</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiao945</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>通讯录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assert_word</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiaoxiao945</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaaaa</t>
+    <t>123456a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,7 +614,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -626,13 +626,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -659,13 +659,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
